--- a/Maine Fairs/Copy of Maine, Washington County Fairs.xlsx
+++ b/Maine Fairs/Copy of Maine, Washington County Fairs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwilliamson/git/plasma_particle_simulator/Apple-mapping/Maine Fairs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61384D16-1B49-4640-9808-28531878F65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5C3F8-3176-754F-AC31-94C93077C3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Varieties List" sheetId="2" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Alt. Name Given</t>
   </si>
   <si>
-    <t>Presumed Id</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Stark</t>
+  </si>
+  <si>
+    <t>Presumed ID</t>
   </si>
 </sst>
 </file>
@@ -335,7 +335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1358,9 +1358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1381,13 +1381,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1">
         <v>1905</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1413,11 +1413,11 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1449,11 +1449,11 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1485,11 +1485,11 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1521,11 +1521,11 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1591,11 +1591,11 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
